--- a/biology/Médecine/Victorin_Laval/Victorin_Laval.xlsx
+++ b/biology/Médecine/Victorin_Laval/Victorin_Laval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élisée Victorin Marius Laval, né à L'Isle-sur-la-Sorgue le 15 janvier 1848[1] et mort le 15 janvier 1930 à Pernes-les-Fontaines[2], est un médecin militaire et historien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisée Victorin Marius Laval, né à L'Isle-sur-la-Sorgue le 15 janvier 1848 et mort le 15 janvier 1930 à Pernes-les-Fontaines, est un médecin militaire et historien français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Victorin Laval est le fils d'Adolphe Hypolithe Laval, orfèvre, et de sa femme Victoire Adélaïde  Arnavon. Il épouse Berthe Mouret le 10 juin 1873 à Avignon.
 Admis comme médecin-élève à l’École du Service de santé militaire de Strasbourg en 1867, sa scolarité est interrompue par la Guerre franco-allemande de 1870. Affecté comme médecin sous-aide-major aux ambulances de la place de Strasbourg le 31 juillet 1870, il subit le siège et le bombardement de la ville. Après la capitulation de celle-ci, il est rattaché aux ambulances du 21e corps d'armée de l’Armée de la Loire le 26 novembre. Il est témoin des divers combats dans lesquels se trouve engagé le 21e corps, commandé par l’amiral Jaurès, et de la prise du Mans. Il participe ensuite aux opérations militaire contre la Commune de Paris. Après la guerre, il est rattaché à l'École du Val-de-Grâce pour compléter ses études et est reçu docteur en la Faculté de médecine de Paris le 4 février 1872 en soutenant une thèse de doctorat intitulée : Essai critique sur le delirium tremens (Paris, Delahaye, 1872).
@@ -548,12 +562,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Professionnelles
-Essai critique sur le delirium tremens, Éd. A. Delahaye , Paris, 1872 (Lire en ligne)
+          <t>Professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Essai critique sur le delirium tremens, Éd. A. Delahaye , Paris, 1872 (Lire en ligne)
 Épidémiologie. Qu'était-ce que le tac ?, Paris, G. Masson, 1876
-Guide-formulaire des experts et des officiers de police judiciaire en matière médico-légale, Paris, L. Larose, 1880
-Historiques
-Des grandes épidémies qui ont régné à Nîmes depuis le VIe siècle jusqu'à nos jours, Éd. Clavel-Ballivet , Nîmes, 1876
+Guide-formulaire des experts et des officiers de police judiciaire en matière médico-légale, Paris, L. Larose, 1880</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Historiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Des grandes épidémies qui ont régné à Nîmes depuis le VIe siècle jusqu'à nos jours, Éd. Clavel-Ballivet , Nîmes, 1876
 Lettres et documents pour servir à l'histoire de la peste d'Arles-en-Provence de 1720-1721, Éd. A. Catélan , Nîmes, 1878 (Lire en ligne)
 Attestation des études de Nicolas Saboly à l'Université d'Avignon, Avignon, Seguin frères, 1879 (Lire en ligne)
 Cartulaire de l'Université d'Avignon (1303-1791), Avignon, Seguin frères, 1884 (Lire en ligne)
@@ -562,46 +615,9 @@
 Centenaire de l'Académie de Vaucluse, Avignon, F. Seguin, 1901
 Joseph-Agricol Viala, sa naissance, sa mort, sa glorification, d'après des documents contemporains, Avignon, F. Seguin, 1903
 Discours prononcé à la Sorbonne, le 18 décembre 1904, à la cérémonie du couronnement du buste de Pétrarque, Avignon, F. Seguin, 1905
-Le général Joseph-François Dours sa vie politique et militaire, sa mort tragique, Paris, Berger-Levrault, 1912 (Lire en ligne)[3]
+Le général Joseph-François Dours sa vie politique et militaire, sa mort tragique, Paris, Berger-Levrault, 1912 (Lire en ligne)
 (éditeur scientifique) Lettres inédites de J.-S. Rovère, membre du Conseil des Anciens... à son frère Simon-Stylite, ex-évêque constitutionnel du département de Vaucluse, publiées avec une introduction, un épilogue et des notes, Paris, H. Champion, 1908
 Victorin Laval est aussi l'auteur de nombreux articles parus dans les pages du Bulletin historique et archéologique de Vaucluse :  « L’Académie des émulateurs à Avignon au XVIIe siècle » (1879) ; « Urbain V, régent de l’université d’Avignon » (1882) ; « Les bâtiments de l’Université d’Avignon » (1880, 1881, 1882) ; « Attestation des études de Nicolas Saboly à l’Université d’Avignon » (1879) ; « Inscriptions inédites de l’Université d’Avignon » (1886) ; « État de l’Université d’Avignon en 1789 » (1889, à l’occasion du centenaire de la Révolution française) ; « Jean-François Faure, médecin et chirurgien avignonnais ; sa vie et ses travaux » (1890), etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Victorin_Laval</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Victorin_Laval</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Décorations
- Officier de la Légion d'honneur
-Officier d’Académie,
-Activité
-Membre de l’Académie de Vaucluse, des Académies de Nîmes et de Montauban, de la Société archéologique de Tarn-et-Garonne, etc.
-Hommage
-Une rue de L'Isle-sur-la-Sorgue porte son nom.
-Un prix littéraire destiné à récompenser un ouvrage traitant d'histoire locale a été baptisé de son nom[4]</t>
         </is>
       </c>
     </row>
@@ -626,10 +642,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur
+Officier d’Académie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Membre de l’Académie de Vaucluse, des Académies de Nîmes et de Montauban, de la Société archéologique de Tarn-et-Garonne, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une rue de L'Isle-sur-la-Sorgue porte son nom.
+Un prix littéraire destiné à récompenser un ouvrage traitant d'histoire locale a été baptisé de son nom</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victorin_Laval</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Mémoires de l'Académie de Vaucluse, p. 138-140, Avignon, Séguin, 1929.</t>
         </is>
